--- a/results/yq_test/r_ini_comp.xlsx
+++ b/results/yq_test/r_ini_comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF0EB5B-8677-1F4B-9D5A-B069B67FE4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{FFF0EB5B-8677-1F4B-9D5A-B069B67FE4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8D1B08-3240-F140-A456-D0E7665DE317}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="0" windowWidth="27700" windowHeight="16860" xr2:uid="{CD8194DD-0596-5746-B1E0-4B3332128427}"/>
   </bookViews>
@@ -16,12 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$U$2:$U$5</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$V$2:$V$5</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$W$2:$W$5</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$X$2:$X$5</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$U$11:$U$14</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$V$11:$V$14</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$W$11:$W$14</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$X$11:$X$14</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$U$11:$X$11</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$U$12:$X$12</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$U$13:$X$13</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$U$14:$X$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>Circuits</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +389,46 @@
   </si>
   <si>
     <t>20-49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qubit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1715,6 +1759,1249 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+              <a:t>DJ circuits</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R_ini = 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$14:$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98014740964162894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95142887724102609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91995972192655884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88867182765666197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85387472454834001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81376052032876245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7719971652670593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73822616117557494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70696324793726217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3548-A749-825D-FB1EA3842F38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R_ini = sqrt(2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$14:$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98014740964162894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95363413101103323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92621181289142274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8936382293195112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86553757703763134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82372111154656646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78431145670896263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75310410688277574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70607282709011265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3548-A749-825D-FB1EA3842F38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>R_ini = 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$14:$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98014740964162894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95587925480586067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92548970559492705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90247142577455997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87737208667936173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83828873111139557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8035209734932327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75678652598840923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72078415381427785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3548-A749-825D-FB1EA3842F38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="297178064"/>
+        <c:axId val="297631392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="297178064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+                  <a:t>Qubits</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297631392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297631392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+                  <a:t>Fidelity</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297178064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+              <a:t>QFT circuits</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R_ini = 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$11:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$11:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87524467102841497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57522589675442171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28894788236578639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1093744463155826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B432-644A-A6E5-151C61376EAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R_ini = sqrt(2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$11:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$11:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87702085702489807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58505341343082817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30169234309011889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11605806476071009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B432-644A-A6E5-151C61376EAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>R_ini = 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$U$11:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$11:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.87779696953168596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58499674067163598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30324492144296028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1176232570288664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B432-644A-A6E5-151C61376EAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="6723760"/>
+        <c:axId val="6725472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="6723760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+                  <a:t>Qubits</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6725472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6725472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
+                  <a:t>Fidelity</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6723760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1795,6 +3082,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2803,20 +4170,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2843,16 +5216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2872,6 +5245,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18131F37-14B5-5FB7-D699-3898C61CBB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501962EE-B962-481A-B15E-F04DC4080865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3199,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D64847-3BC8-2040-9BC2-B9827C9559DD}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3786,7 +6231,9 @@
       <c r="R10">
         <v>0.40904840680085092</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
@@ -3823,6 +6270,18 @@
       <c r="R11">
         <v>0.35069420594030049</v>
       </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.87524467102841497</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.87702085702489807</v>
+      </c>
+      <c r="X11">
+        <v>0.87779696953168596</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
@@ -3859,6 +6318,18 @@
       <c r="R12">
         <v>0.30324492144296028</v>
       </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.57522589675442171</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.58505341343082817</v>
+      </c>
+      <c r="X12">
+        <v>0.58499674067163598</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -3879,7 +6350,9 @@
       <c r="F13" s="1">
         <v>0.92754114216666517</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>64</v>
       </c>
@@ -3894,6 +6367,18 @@
       </c>
       <c r="R13">
         <v>0.25404609843818488</v>
+      </c>
+      <c r="U13">
+        <v>15</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.28894788236578639</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.30169234309011889</v>
+      </c>
+      <c r="X13">
+        <v>0.30324492144296028</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -3915,7 +6400,21 @@
       <c r="F14" s="1">
         <v>0.92289962179617802</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.98014740964162894</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.98014740964162894</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.98014740964162894</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.98014740964162894</v>
+      </c>
       <c r="N14" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,6 +6429,18 @@
       </c>
       <c r="R14">
         <v>0.21558143221232071</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.1093744463155826</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.11605806476071009</v>
+      </c>
+      <c r="X14">
+        <v>0.1176232570288664</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -3951,7 +6462,21 @@
       <c r="F15" s="1">
         <v>0.9182810832415419</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.95142887724102609</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.95363413101103323</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.95587925480586067</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.95587925480586067</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>66</v>
       </c>
@@ -3966,6 +6491,18 @@
       </c>
       <c r="R15">
         <v>0.177078559586207</v>
+      </c>
+      <c r="U15">
+        <v>25</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3.1193099294098438E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <v>3.2515600347048187E-2</v>
+      </c>
+      <c r="X15">
+        <v>3.4666246258005552E-2</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -3987,7 +6524,21 @@
       <c r="F16" s="1">
         <v>0.91368541395012015</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.91995972192655884</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.92621181289142274</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.92548970559492705</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.93220575745328194</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4003,8 +6554,20 @@
       <c r="R16">
         <v>0.1472803911424882</v>
       </c>
+      <c r="U16">
+        <v>30</v>
+      </c>
+      <c r="V16" s="1">
+        <v>6.9546163860046781E-3</v>
+      </c>
+      <c r="W16" s="1">
+        <v>7.2751265956132721E-3</v>
+      </c>
+      <c r="X16">
+        <v>7.8729251121221443E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4023,7 +6586,21 @@
       <c r="F17" s="1">
         <v>0.90911250191429716</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.88867182765666197</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.8936382293195112</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.90247142577455997</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.90911250191429716</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>68</v>
       </c>
@@ -4039,8 +6616,20 @@
       <c r="R17">
         <v>0.1176232570288664</v>
       </c>
+      <c r="U17">
+        <v>35</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1.110182099623882E-3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1.1215154308106001E-3</v>
+      </c>
+      <c r="X17">
+        <v>1.3117551978642211E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4059,7 +6648,21 @@
       <c r="F18" s="1">
         <v>0.90456223566887051</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.85387472454834001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.86553757703763134</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.87737208667936173</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.88658541812648195</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>69</v>
       </c>
@@ -4075,8 +6678,20 @@
       <c r="R18">
         <v>9.505577517721002E-2</v>
       </c>
+      <c r="U18">
+        <v>40</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.3551276253202519E-4</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1.5012842543156549E-4</v>
+      </c>
+      <c r="X18">
+        <v>1.6579544526029529E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4095,7 +6710,21 @@
       <c r="F19" s="1">
         <v>0.90003450428845422</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.81376052032876245</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.82372111154656646</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.83828873111139557</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.84828150716439621</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>70</v>
       </c>
@@ -4111,8 +6740,20 @@
       <c r="R19">
         <v>7.3451411726840873E-2</v>
       </c>
+      <c r="U19">
+        <v>45</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.359673364609683E-5</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1.3130718417355841E-5</v>
+      </c>
+      <c r="X19">
+        <v>1.7661718608268901E-5</v>
+      </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4131,7 +6772,21 @@
       <c r="F20" s="1">
         <v>0.895529197384895</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.7719971652670593</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.78431145670896263</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.8035209734932327</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.81858051640994034</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>71</v>
       </c>
@@ -4148,7 +6803,7 @@
         <v>5.9286174523124867E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4167,7 +6822,21 @@
       <c r="F21" s="1">
         <v>0.89104620510470101</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.73822616117557494</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.75310410688277574</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.75678652598840923</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.79261801439909163</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>72</v>
       </c>
@@ -4184,7 +6853,7 @@
         <v>4.4774764014764552E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4203,7 +6872,21 @@
       <c r="F22" s="1">
         <v>0.88658541812648195</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.70696324793726217</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.70607282709011265</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.72078415381427785</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.77065902059983038</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>73</v>
       </c>
@@ -4220,7 +6903,7 @@
         <v>3.4666246258005552E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4256,7 +6939,7 @@
         <v>2.6675892063247029E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4292,7 +6975,7 @@
         <v>2.0339972653832871E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -4328,7 +7011,7 @@
         <v>1.4701990832284181E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4364,7 +7047,7 @@
         <v>1.0810583600631861E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -4400,7 +7083,7 @@
         <v>7.8729251121221443E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4436,7 +7119,7 @@
         <v>5.6282674807942787E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -4472,7 +7155,7 @@
         <v>3.9718411433450843E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -4508,7 +7191,7 @@
         <v>2.7944660905070591E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4544,7 +7227,7 @@
         <v>1.939597035903992E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
